--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_1_8.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/90/Output_1_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-851816.1529265068</v>
+        <v>-654005.1611124588</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14288614.32631045</v>
+        <v>12244790.98632948</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393801.366480917</v>
+        <v>393801.3664809167</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10369545.86191977</v>
+        <v>10394162.71611837</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>65.89219700068313</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D3" t="n">
-        <v>24.76484596498758</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E3" t="n">
-        <v>28.11631013281968</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>28.11631013281968</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G3" t="n">
-        <v>28.11631013281968</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>24.76484596498756</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>28.11631013281968</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>28.11631013281968</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>6.735031980320782</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>292.9082206543444</v>
+        <v>287.508607627288</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>292.9082206543444</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>119.909741323341</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1023,16 +1023,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
-        <v>91.22949110225818</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W6" t="n">
         <v>194.556163395115</v>
@@ -1041,7 +1041,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1060,19 +1060,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>68.27008940371553</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>38.90528114630978</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>22.63172268683286</v>
@@ -1142,16 +1142,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>395.111023878127</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>103.1531638478813</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>155.4034629687607</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E11" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>1.495586822101302</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>127.1357026005335</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>92.96932646399723</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>133.885794462093</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>242.8347014707352</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>244.3464501740879</v>
+        <v>259.6769846794581</v>
       </c>
       <c r="W13" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>205.5903550446894</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.71803126805922</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407049</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.7164064809815</v>
+        <v>184.0065426553956</v>
       </c>
       <c r="C16" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>80.94900182826197</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>12.02032463573508</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>244.3464501740879</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>30.78532107306536</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>135.7049349459097</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.9982212447115</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>130.0464974647467</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>37.36157859846153</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>244.3464501740879</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>205.5903550446894</v>
+        <v>189.3845495228732</v>
       </c>
       <c r="Y19" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>31.6998733062772</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.8104032629636</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>133.885794462093</v>
+        <v>96.44420510686437</v>
       </c>
       <c r="T22" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>205.5903550446894</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>162.6700366484902</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>381.1019781046512</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>388.0838201428693</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>384.5117920628862</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>387.1692679096575</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>386.3250374485302</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>365.7477692424823</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>260.341792196742</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.77571864162749</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>184.1684127018497</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>221.2234577655883</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>319.3666181810495</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>357.879533658693</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>373.0548962999667</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>366.735994800695</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.7164064809815</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>135.7049349459097</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>127.1357026005335</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.9982212447115</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>135.5952539392217</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>130.0464974647467</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>80.94900182826201</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>64.22298003316328</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>12.02032463573508</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.885794462093</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>206.3580517523955</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8347014707352</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>244.3464501740879</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>237.5559772452486</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>205.5903550446894</v>
+        <v>168.1487656894608</v>
       </c>
       <c r="Y25" t="n">
-        <v>189.5314380831919</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2713,7 +2713,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>98.26334559068106</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399292</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2959,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399286</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.44420510686466</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>379.9752792759751</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>386.9571213141932</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>383.38509323421</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>386.0425690809814</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>385.1983386198541</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>364.6210704138062</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>259.2150933680659</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.64901981295137</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>183.0417138731735</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
-        <v>220.0967589369122</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>318.2399193523734</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>356.7528348300169</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>371.9281974712906</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>365.6092959720189</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.5897076523053</v>
+        <v>178.166821389323</v>
       </c>
       <c r="C34" t="n">
-        <v>134.5782361172335</v>
+        <v>160.1553498542512</v>
       </c>
       <c r="D34" t="n">
-        <v>126.0090037718574</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>128.8715224160353</v>
+        <v>154.448636153053</v>
       </c>
       <c r="F34" t="n">
-        <v>134.4685551105455</v>
+        <v>160.0456688475632</v>
       </c>
       <c r="G34" t="n">
-        <v>128.9197986360705</v>
+        <v>154.4969123730882</v>
       </c>
       <c r="H34" t="n">
-        <v>106.6837044342875</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>63.09628120448776</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>10.89362580705895</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>132.7590956334168</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>205.2313529237194</v>
+        <v>230.8084666607371</v>
       </c>
       <c r="U34" t="n">
-        <v>241.7080026420591</v>
+        <v>267.2851163790768</v>
       </c>
       <c r="V34" t="n">
-        <v>243.2197513454117</v>
+        <v>268.7968650824295</v>
       </c>
       <c r="W34" t="n">
-        <v>236.4292784165725</v>
+        <v>219.5548185082954</v>
       </c>
       <c r="X34" t="n">
-        <v>204.4636562160133</v>
+        <v>230.040769953031</v>
       </c>
       <c r="Y34" t="n">
-        <v>188.4047392545157</v>
+        <v>213.9818529915334</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.64901981295137</v>
+        <v>67.6490198129504</v>
       </c>
       <c r="T35" t="n">
         <v>183.0417138731735</v>
@@ -3442,7 +3442,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I37" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448713</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705893</v>
       </c>
       <c r="S37" t="n">
         <v>132.7590956334168</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T41" t="n">
         <v>183.0417138731735</v>
@@ -3901,7 +3901,7 @@
         <v>134.5782361172335</v>
       </c>
       <c r="D43" t="n">
-        <v>126.0090037718574</v>
+        <v>126.0090037718573</v>
       </c>
       <c r="E43" t="n">
         <v>128.8715224160353</v>
@@ -3916,7 +3916,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I43" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448772</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705892</v>
       </c>
       <c r="S43" t="n">
         <v>132.7590956334168</v>
       </c>
       <c r="T43" t="n">
-        <v>205.2313529237194</v>
+        <v>205.2313529237193</v>
       </c>
       <c r="U43" t="n">
         <v>241.7080026420591</v>
@@ -3961,7 +3961,7 @@
         <v>236.4292784165725</v>
       </c>
       <c r="X43" t="n">
-        <v>204.4636562160133</v>
+        <v>204.4636562160132</v>
       </c>
       <c r="Y43" t="n">
         <v>188.4047392545157</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.64901981295137</v>
+        <v>67.64901981295134</v>
       </c>
       <c r="T44" t="n">
         <v>183.0417138731735</v>
@@ -4138,7 +4138,7 @@
         <v>134.5782361172335</v>
       </c>
       <c r="D46" t="n">
-        <v>126.0090037718574</v>
+        <v>126.0090037718573</v>
       </c>
       <c r="E46" t="n">
         <v>128.8715224160353</v>
@@ -4153,7 +4153,7 @@
         <v>106.6837044342875</v>
       </c>
       <c r="I46" t="n">
-        <v>63.09628120448715</v>
+        <v>63.09628120448713</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>10.89362580705895</v>
+        <v>10.89362580705892</v>
       </c>
       <c r="S46" t="n">
         <v>132.7590956334168</v>
       </c>
       <c r="T46" t="n">
-        <v>205.2313529237194</v>
+        <v>205.2313529237193</v>
       </c>
       <c r="U46" t="n">
         <v>241.7080026420591</v>
@@ -4198,7 +4198,7 @@
         <v>236.4292784165725</v>
       </c>
       <c r="X46" t="n">
-        <v>204.4636562160133</v>
+        <v>204.4636562160132</v>
       </c>
       <c r="Y46" t="n">
         <v>188.4047392545157</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>1276.331056000869</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>1209.773281252704</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270697</v>
+        <v>1190.521064478109</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>764.5441246259664</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772882</v>
+        <v>743.4603468557707</v>
       </c>
       <c r="G2" t="n">
-        <v>2.249304810625574</v>
+        <v>339.1212844452193</v>
       </c>
       <c r="H2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="I2" t="n">
-        <v>2.249304810625574</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="J2" t="n">
-        <v>30.08445184211706</v>
+        <v>403.8563647361496</v>
       </c>
       <c r="K2" t="n">
-        <v>56.79494646829576</v>
+        <v>403.8563647361496</v>
       </c>
       <c r="L2" t="n">
-        <v>56.79494646829576</v>
+        <v>914.3610754869188</v>
       </c>
       <c r="M2" t="n">
-        <v>56.79494646829576</v>
+        <v>914.3610754869188</v>
       </c>
       <c r="N2" t="n">
-        <v>56.79494646829576</v>
+        <v>1041.635874461166</v>
       </c>
       <c r="O2" t="n">
-        <v>56.79494646829576</v>
+        <v>1552.140585211935</v>
       </c>
       <c r="P2" t="n">
-        <v>56.79494646829576</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.63009349978725</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="R2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="S2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="T2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="U2" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="V2" t="n">
-        <v>112.4652405312787</v>
+        <v>1705.155881088953</v>
       </c>
       <c r="W2" t="n">
-        <v>112.4652405312787</v>
+        <v>1705.155881088953</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>1697.476286297105</v>
       </c>
       <c r="Y2" t="n">
-        <v>103.4887797347244</v>
+        <v>1292.139016251995</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.4652405312787</v>
+        <v>608.3763969507094</v>
       </c>
       <c r="C3" t="n">
-        <v>112.4652405312787</v>
+        <v>490.8704934682141</v>
       </c>
       <c r="D3" t="n">
-        <v>87.45024460704886</v>
+        <v>387.0305349834991</v>
       </c>
       <c r="E3" t="n">
-        <v>59.04993134157444</v>
+        <v>282.3286012564363</v>
       </c>
       <c r="F3" t="n">
-        <v>30.6496180761</v>
+        <v>188.6827709393405</v>
       </c>
       <c r="G3" t="n">
-        <v>2.249304810625575</v>
+        <v>94.6289991569445</v>
       </c>
       <c r="H3" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="J3" t="n">
-        <v>30.08445184211706</v>
+        <v>312.9503951988452</v>
       </c>
       <c r="K3" t="n">
-        <v>30.08445184211706</v>
+        <v>823.4551059496143</v>
       </c>
       <c r="L3" t="n">
-        <v>57.91959887360855</v>
+        <v>1333.959816700383</v>
       </c>
       <c r="M3" t="n">
-        <v>57.91959887360855</v>
+        <v>1844.464527451153</v>
       </c>
       <c r="N3" t="n">
-        <v>57.91959887360855</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="O3" t="n">
-        <v>84.63009349978725</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="P3" t="n">
-        <v>84.63009349978725</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="Q3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="R3" t="n">
-        <v>112.4652405312787</v>
+        <v>1849.940536499764</v>
       </c>
       <c r="S3" t="n">
-        <v>112.4652405312787</v>
+        <v>1768.616289061019</v>
       </c>
       <c r="T3" t="n">
-        <v>112.4652405312787</v>
+        <v>1626.736353358697</v>
       </c>
       <c r="U3" t="n">
-        <v>112.4652405312787</v>
+        <v>1441.968157278333</v>
       </c>
       <c r="V3" t="n">
-        <v>112.4652405312787</v>
+        <v>1236.9950184176</v>
       </c>
       <c r="W3" t="n">
-        <v>112.4652405312787</v>
+        <v>1040.473641250817</v>
       </c>
       <c r="X3" t="n">
-        <v>112.4652405312787</v>
+        <v>876.9962950174797</v>
       </c>
       <c r="Y3" t="n">
-        <v>112.4652405312787</v>
+        <v>737.3034063707721</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>84.0649272658043</v>
+        <v>786.3640483709048</v>
       </c>
       <c r="C4" t="n">
-        <v>84.0649272658043</v>
+        <v>614.3914852498208</v>
       </c>
       <c r="D4" t="n">
-        <v>59.04993134157444</v>
+        <v>451.0747123765915</v>
       </c>
       <c r="E4" t="n">
-        <v>59.04993134157444</v>
+        <v>451.0747123765915</v>
       </c>
       <c r="F4" t="n">
-        <v>59.04993134157444</v>
+        <v>451.0747123765915</v>
       </c>
       <c r="G4" t="n">
-        <v>59.04993134157444</v>
+        <v>284.8177426708237</v>
       </c>
       <c r="H4" t="n">
-        <v>30.6496180761</v>
+        <v>141.0214741789781</v>
       </c>
       <c r="I4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="J4" t="n">
-        <v>2.249304810625575</v>
+        <v>41.25290591925408</v>
       </c>
       <c r="K4" t="n">
-        <v>2.249304810625575</v>
+        <v>166.2511979795704</v>
       </c>
       <c r="L4" t="n">
-        <v>30.08445184211706</v>
+        <v>520.9405192739912</v>
       </c>
       <c r="M4" t="n">
-        <v>30.08445184211706</v>
+        <v>912.1263142442419</v>
       </c>
       <c r="N4" t="n">
-        <v>57.91959887360855</v>
+        <v>1289.617825120278</v>
       </c>
       <c r="O4" t="n">
-        <v>85.75474590510004</v>
+        <v>1645.045953800041</v>
       </c>
       <c r="P4" t="n">
-        <v>112.4652405312787</v>
+        <v>1935.645165721942</v>
       </c>
       <c r="Q4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="R4" t="n">
-        <v>112.4652405312787</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="S4" t="n">
-        <v>84.0649272658043</v>
+        <v>2062.645295962704</v>
       </c>
       <c r="T4" t="n">
-        <v>84.0649272658043</v>
+        <v>2055.842233356319</v>
       </c>
       <c r="U4" t="n">
-        <v>84.0649272658043</v>
+        <v>1775.657784856623</v>
       </c>
       <c r="V4" t="n">
-        <v>84.0649272658043</v>
+        <v>1493.946317464652</v>
       </c>
       <c r="W4" t="n">
-        <v>84.0649272658043</v>
+        <v>1219.093913637165</v>
       </c>
       <c r="X4" t="n">
-        <v>84.0649272658043</v>
+        <v>976.5300170829705</v>
       </c>
       <c r="Y4" t="n">
-        <v>84.0649272658043</v>
+        <v>976.5300170829705</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>541.4966671887539</v>
+        <v>866.7353935451185</v>
       </c>
       <c r="C5" t="n">
-        <v>518.6363412424581</v>
+        <v>843.8750675988227</v>
       </c>
       <c r="D5" t="n">
-        <v>222.7694516926153</v>
+        <v>824.622850824227</v>
       </c>
       <c r="E5" t="n">
-        <v>200.8329158808769</v>
+        <v>802.6863150124886</v>
       </c>
       <c r="F5" t="n">
-        <v>179.7491381106812</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>179.4504797405339</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>58.32952890887634</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>23.43265765234755</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>313.4117961001485</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K5" t="n">
-        <v>603.3909345479494</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L5" t="n">
-        <v>603.3909345479494</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M5" t="n">
-        <v>603.3909345479494</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N5" t="n">
-        <v>603.3909345479494</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>764.0974092876741</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P5" t="n">
-        <v>1054.076547735475</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.076547735475</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
-        <v>1171.632882617378</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1067.265588490518</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>846.3400175351511</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>846.3400175351511</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>846.3400175351511</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W5" t="n">
-        <v>846.3400175351511</v>
+        <v>1570.164993359136</v>
       </c>
       <c r="X5" t="n">
-        <v>838.6604227433024</v>
+        <v>1562.485398567287</v>
       </c>
       <c r="Y5" t="n">
-        <v>837.3635567385968</v>
+        <v>1157.148128522177</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>590.5561486838028</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>473.0502452013076</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>369.2102867165926</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>264.5083529895298</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>170.862522672434</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>76.80875089003797</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>23.43265765234755</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>23.43265765234755</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>23.43265765234755</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>313.4117961001485</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L6" t="n">
-        <v>313.4117961001485</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M6" t="n">
-        <v>313.4117961001485</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N6" t="n">
-        <v>313.4117961001485</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O6" t="n">
-        <v>509.6552956370725</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>799.6344340848734</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1089.613572532674</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1171.632882617378</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1171.632882617378</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1171.632882617378</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1171.632882617378</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1079.481881503986</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>882.9605043372027</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>719.4831581038655</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>719.4831581038655</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>599.5434541384798</v>
+        <v>729.0902991667042</v>
       </c>
       <c r="C7" t="n">
-        <v>427.5708910173958</v>
+        <v>557.1177360456202</v>
       </c>
       <c r="D7" t="n">
-        <v>264.2541181441665</v>
+        <v>393.8009631723909</v>
       </c>
       <c r="E7" t="n">
-        <v>264.2541181441665</v>
+        <v>227.5927573252444</v>
       </c>
       <c r="F7" t="n">
-        <v>92.39234391872688</v>
+        <v>227.5927573252444</v>
       </c>
       <c r="G7" t="n">
-        <v>92.39234391872688</v>
+        <v>227.5927573252444</v>
       </c>
       <c r="H7" t="n">
-        <v>23.43265765234755</v>
+        <v>83.79648883339883</v>
       </c>
       <c r="I7" t="n">
-        <v>23.43265765234755</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>80.92398587650557</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>307.4515870823428</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>597.4307255301437</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>597.4307255301437</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>887.4098639779447</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1044.632752376616</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.632752376616</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1171.632882617378</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1124.594269304551</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S7" t="n">
-        <v>1124.594269304551</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>881.2549215304508</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>881.2549215304508</v>
+        <v>1944.726803962681</v>
       </c>
       <c r="V7" t="n">
-        <v>599.5434541384798</v>
+        <v>1663.01533657071</v>
       </c>
       <c r="W7" t="n">
-        <v>599.5434541384798</v>
+        <v>1388.162932743223</v>
       </c>
       <c r="X7" t="n">
-        <v>599.5434541384798</v>
+        <v>1145.599036189028</v>
       </c>
       <c r="Y7" t="n">
-        <v>599.5434541384798</v>
+        <v>919.2562678787699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1237.167427507842</v>
+        <v>129.9297397222204</v>
       </c>
       <c r="C8" t="n">
-        <v>1214.307101561546</v>
+        <v>107.0694137759246</v>
       </c>
       <c r="D8" t="n">
-        <v>1195.054884786951</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E8" t="n">
-        <v>1173.118348975212</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>774.0163046538721</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>369.6772422433207</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>71.80886371735554</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>36.91199246082674</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>475.942330131692</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N8" t="n">
-        <v>475.942330131692</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>932.7282368344229</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1520.30675795911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1261.951848555523</v>
+        <v>2120.716137464517</v>
       </c>
       <c r="V8" t="n">
-        <v>1261.951848555523</v>
+        <v>1763.226722590766</v>
       </c>
       <c r="W8" t="n">
-        <v>1261.951848555523</v>
+        <v>1366.835372891113</v>
       </c>
       <c r="X8" t="n">
-        <v>1254.272253763674</v>
+        <v>955.1153740588601</v>
       </c>
       <c r="Y8" t="n">
-        <v>1252.975387758968</v>
+        <v>549.7781040137504</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>765.3953884431487</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>765.3953884431487</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M9" t="n">
-        <v>765.3953884431487</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="N9" t="n">
-        <v>932.027809635875</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="O9" t="n">
-        <v>1388.813716338606</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P9" t="n">
-        <v>1845.599623041337</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>603.7069938361044</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>603.7069938361044</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>446.7337989181643</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>446.7337989181643</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>446.7337989181643</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>94.40332068498475</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>303.8948463526241</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1385.086614473545</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1104.902165973849</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1104.902165973849</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>830.0497621463624</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>830.0497621463624</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>603.7069938361044</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2278.394075726158</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>716.6870882878313</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G11" t="n">
-        <v>347.2448971338088</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>84.27338986437223</v>
+        <v>188.2350251358961</v>
       </c>
       <c r="K11" t="n">
-        <v>799.7816978398713</v>
+        <v>903.7433331113951</v>
       </c>
       <c r="L11" t="n">
-        <v>1729.406745459148</v>
+        <v>1833.368380730672</v>
       </c>
       <c r="M11" t="n">
-        <v>1729.406745459148</v>
+        <v>2837.65448214973</v>
       </c>
       <c r="N11" t="n">
-        <v>2705.657803945849</v>
+        <v>3813.905540636431</v>
       </c>
       <c r="O11" t="n">
-        <v>3550.802454096661</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P11" t="n">
-        <v>4213.669493218612</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q11" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R11" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>4144.199070348281</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>3958.170370649443</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>3412.119788885162</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>3410.609095125464</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>3033.78596754974</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2663.345568761159</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>91.72003282628407</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>363.4175221058752</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>953.9024486742147</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>953.9024486742147</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M12" t="n">
-        <v>953.9024486742147</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N12" t="n">
-        <v>953.9024486742147</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O12" t="n">
-        <v>1346.796233497399</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P12" t="n">
-        <v>1346.796233497399</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1810.941710360179</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>908.1854269272847</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C13" t="n">
-        <v>771.1097350627293</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D13" t="n">
-        <v>642.6898334460288</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E13" t="n">
-        <v>511.3784988554113</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F13" t="n">
-        <v>374.4135958865006</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G13" t="n">
-        <v>243.0534974372617</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H13" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>436.697166331415</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>825.5889111443595</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1250.977129633134</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2403.067629201356</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T13" t="n">
-        <v>2194.625152683785</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U13" t="n">
-        <v>1949.337575440617</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.522979305175</v>
+        <v>1777.076408520152</v>
       </c>
       <c r="W13" t="n">
-        <v>1462.567446734217</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="X13" t="n">
-        <v>1254.900421436551</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y13" t="n">
-        <v>1063.454524382822</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2278.394075726158</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C14" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D14" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F14" t="n">
-        <v>716.6870882878312</v>
+        <v>839.4070255988727</v>
       </c>
       <c r="G14" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883213</v>
       </c>
       <c r="H14" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K14" t="n">
-        <v>84.27338986437223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L14" t="n">
-        <v>1013.898437483649</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M14" t="n">
-        <v>1110.352691037086</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N14" t="n">
-        <v>2086.603749523787</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O14" t="n">
-        <v>2931.748399674599</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P14" t="n">
-        <v>3640.027678832526</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q14" t="n">
-        <v>4096.11315833671</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R14" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>4144.199070348282</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3958.170370649444</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>3412.119788885163</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2673.802182866314</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2303.361784077733</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>91.72003282628407</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>363.4175221058752</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>953.9024486742147</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>1346.796233497399</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>1346.796233497399</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.796233497399</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1346.796233497399</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1346.796233497399</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1810.941710360179</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>896.0436848709866</v>
+        <v>612.3940204581199</v>
       </c>
       <c r="C16" t="n">
-        <v>758.9679930064314</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="D16" t="n">
-        <v>630.5480913897309</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="E16" t="n">
-        <v>499.2367567991133</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F16" t="n">
-        <v>362.2718538302025</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G16" t="n">
-        <v>230.9117553809634</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>175.967141607054</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>436.6971663314151</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>825.5889111443597</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1250.977129633134</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2526.164063369394</v>
+        <v>2235.677127506131</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.925887145058</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2182.483410627487</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1937.195833384319</v>
+        <v>1542.01828375147</v>
       </c>
       <c r="V16" t="n">
-        <v>1690.381237248877</v>
+        <v>1542.01828375147</v>
       </c>
       <c r="W16" t="n">
-        <v>1450.425704677919</v>
+        <v>1267.165879923983</v>
       </c>
       <c r="X16" t="n">
-        <v>1242.758679380253</v>
+        <v>1024.601983369788</v>
       </c>
       <c r="Y16" t="n">
-        <v>1051.312782326524</v>
+        <v>798.2592150595297</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1918.410291042732</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>1526.406432312561</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1138.01068275409</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>716.6870882878312</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>446.8768486812677</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>1162.385156656767</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="L17" t="n">
-        <v>2092.010204276044</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M17" t="n">
-        <v>2204.160084405689</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N17" t="n">
-        <v>2204.160084405689</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>3049.304734556501</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>3757.584013714429</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>4213.669493218612</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>4144.199070348281</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>3958.170370649443</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>3412.119788885162</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>2673.802182866314</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2303.361784077733</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>84.27338986437223</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>355.9708791439633</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>946.4558057123029</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>1346.796233497399</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1346.796233497399</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.796233497399</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1346.796233497399</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1346.796233497399</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1810.941710360179</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.0436848709865</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="C19" t="n">
-        <v>758.9679930064312</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D19" t="n">
-        <v>630.5480913897308</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E19" t="n">
-        <v>499.2367567991132</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F19" t="n">
-        <v>362.2718538302024</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G19" t="n">
-        <v>230.9117553809633</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H19" t="n">
-        <v>122.0123581456465</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I19" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>175.967141607054</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>436.697166331415</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
-        <v>825.5889111443596</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1250.977129633134</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2538.305805425692</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2526.164063369394</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.925887145057</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>2182.483410627486</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1937.195833384319</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1690.381237248877</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="W19" t="n">
-        <v>1450.425704677918</v>
+        <v>1314.204493236809</v>
       </c>
       <c r="X19" t="n">
-        <v>1242.758679380252</v>
+        <v>1122.90696846623</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.312782326523</v>
+        <v>896.5642001559722</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1918.410291042732</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>1886.390216995987</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1497.994467437516</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1106.914398841902</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>716.6870882878312</v>
+        <v>839.407025598874</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2448971338086</v>
+        <v>435.0679631883227</v>
       </c>
       <c r="H20" t="n">
-        <v>84.27338986437223</v>
+        <v>137.1995846623575</v>
       </c>
       <c r="I20" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>446.8768486812677</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>1162.385156656767</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2092.010204276044</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2092.010204276044</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N20" t="n">
-        <v>2092.010204276044</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O20" t="n">
-        <v>2937.154854426856</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P20" t="n">
-        <v>3645.434133584783</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q20" t="n">
-        <v>4101.519613088966</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R20" t="n">
-        <v>4213.669493218612</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>4144.199070348281</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>3958.170370649443</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
-        <v>3734.712332502384</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>3412.119788885162</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3050.625310442038</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>2673.802182866314</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2303.361784077733</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>651.3968808958275</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>533.8909774133323</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>430.0510189286173</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>325.3490852015545</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>231.7032548844587</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>137.6494831020626</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>355.9708791439633</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>946.4558057123029</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>1428.815543582103</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1428.815543582103</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.815543582103</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O21" t="n">
-        <v>1428.815543582103</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P21" t="n">
-        <v>1428.815543582103</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1892.961020444882</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>1892.961020444882</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>1811.636773006137</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>1669.756837303815</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>1484.988641223451</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>1280.015502362718</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>1083.494125195935</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>920.0167789625979</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>780.3238903158903</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.1764135929075</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>786.1007217283524</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>657.6808201116519</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>526.3694855210342</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>389.4045825521234</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>258.0444841028843</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>149.1450868675675</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>84.27338986437223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>175.9671416070541</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>436.6971663314152</v>
+        <v>386.3216428358239</v>
       </c>
       <c r="L22" t="n">
-        <v>825.5889111443598</v>
+        <v>741.0109641302447</v>
       </c>
       <c r="M22" t="n">
-        <v>1250.977129633135</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1662.671064027694</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>2052.301616225981</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2377.103251666406</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2538.305805425693</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2526.164063369395</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.925887145058</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2182.483410627487</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.19583338432</v>
+        <v>1661.773555548328</v>
       </c>
       <c r="V22" t="n">
-        <v>1690.381237248878</v>
+        <v>1380.062088156357</v>
       </c>
       <c r="W22" t="n">
-        <v>1450.425704677919</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1242.758679380253</v>
+        <v>862.6457877746753</v>
       </c>
       <c r="Y22" t="n">
-        <v>1078.445511048444</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.74068357684</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>1893.736824846669</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
-        <v>1505.341075288198</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E23" t="n">
-        <v>1114.261006692584</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>724.0336961385133</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>354.5915049844908</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>91.6199977150544</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>91.6199977150544</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>91.6199977150544</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>473.3969821521353</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>1477.683083571193</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N23" t="n">
-        <v>2453.934142057894</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3299.078792208707</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4007.358071366634</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>4463.443550870817</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
-        <v>4580.99988575272</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>4511.529462882389</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4325.500763183551</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
-        <v>4102.042725036492</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V23" t="n">
-        <v>3779.45018141927</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W23" t="n">
-        <v>3417.955702976146</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X23" t="n">
-        <v>3041.132575400422</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y23" t="n">
-        <v>2670.692176611841</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>658.7434887465096</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C24" t="n">
-        <v>541.2375852640143</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D24" t="n">
-        <v>437.3976267792994</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E24" t="n">
-        <v>332.6956930522366</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F24" t="n">
-        <v>239.0498627351408</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G24" t="n">
-        <v>144.9960909527448</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H24" t="n">
-        <v>91.6199977150544</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>99.06664067696623</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>370.7641299565573</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>961.2490565248969</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>961.2490565248969</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>961.2490565248969</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N24" t="n">
-        <v>961.2490565248969</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O24" t="n">
-        <v>961.2490565248969</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P24" t="n">
-        <v>1354.142841348082</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q24" t="n">
-        <v>1818.288318210861</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R24" t="n">
-        <v>1900.307628295564</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S24" t="n">
-        <v>1818.983380856819</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T24" t="n">
-        <v>1677.103445154497</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U24" t="n">
-        <v>1492.335249074134</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V24" t="n">
-        <v>1287.3621102134</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W24" t="n">
-        <v>1090.840733046617</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X24" t="n">
-        <v>927.3633868132799</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y24" t="n">
-        <v>787.6704981665723</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>903.3902927216689</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>766.3146008571136</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>637.8946992404132</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>506.5833646497955</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>369.6184616808847</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G25" t="n">
-        <v>238.2583632316456</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H25" t="n">
-        <v>156.4916947182496</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I25" t="n">
-        <v>91.61999771505441</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J25" t="n">
-        <v>183.3137494577363</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>444.0437741820974</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>832.935518995042</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>1258.323737483817</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>1670.017671878376</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>2059.648224076664</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>2384.449859517088</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>2545.652413276374</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2533.510671220076</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2398.27249499574</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>2189.830018478169</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1944.542441235002</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1697.727845099559</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1457.772312528601</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1250.105287230935</v>
+        <v>862.6457877746756</v>
       </c>
       <c r="Y25" t="n">
-        <v>1058.659390177206</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6212,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6230,40 +6230,40 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690841</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109899</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.0699265966</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747412</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.49385590534</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409523</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V26" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W26" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X26" t="n">
         <v>3365.887132399955</v>
@@ -6294,13 +6294,13 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G27" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H27" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677403</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
         <v>381.4468456473314</v>
@@ -6309,16 +6309,16 @@
         <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
         <v>1364.825557038856</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>373.4203922683197</v>
+        <v>373.4203922683196</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472356</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472356</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472356</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6461,22 +6461,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P29" t="n">
         <v>5115.135670291427</v>
@@ -6546,16 +6546,16 @@
         <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M30" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N30" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O30" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P30" t="n">
         <v>1364.825557038856</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>446.1370507523519</v>
+        <v>373.4203922683195</v>
       </c>
       <c r="C31" t="n">
-        <v>274.1644876312679</v>
+        <v>201.4478291472355</v>
       </c>
       <c r="D31" t="n">
-        <v>274.164487631268</v>
+        <v>201.4478291472355</v>
       </c>
       <c r="E31" t="n">
-        <v>274.164487631268</v>
+        <v>201.4478291472355</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058284</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058284</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J31" t="n">
         <v>159.7940416299866</v>
@@ -6646,25 +6646,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2185.297351822124</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1941.958004048024</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1661.773555548329</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1380.062088156358</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.20968432887</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>862.6457877746756</v>
+        <v>789.9291292906431</v>
       </c>
       <c r="Y31" t="n">
-        <v>636.3030194644175</v>
+        <v>563.5863609803851</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2278.587040220166</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>1887.721261114921</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
-        <v>1500.463591181375</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1110.521602210687</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>721.4323712815412</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>353.1282597524439</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>91.29483210793288</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>453.8982909248284</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1169.406598900327</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>2099.031646519604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>3103.317747938662</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N32" t="n">
-        <v>3400.376846734533</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3400.376846734533</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4108.65612589246</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>4564.741605396644</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>4564.741605396644</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>4496.409262151238</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4311.518642077325</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
-        <v>4089.198683555192</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.744219562895</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3407.387820744696</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3031.702772793898</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2662.400453630242</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>658.4183231393881</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>540.9124196568929</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>437.0724611721779</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>332.3705274451151</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>238.7246971280193</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>144.6709253456233</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>98.74147506984471</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>370.4389643494358</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O33" t="n">
-        <v>960.9238909177753</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P33" t="n">
-        <v>1353.81767574096</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1817.963152603739</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>1899.982462688443</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>1818.658215249697</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>1676.778279547375</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>1492.010083467012</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>1287.036944606278</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>1090.515567439495</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>927.0382212061585</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>787.3453325594509</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.2312984619907</v>
+        <v>737.8042964643698</v>
       </c>
       <c r="C34" t="n">
-        <v>786.293686222361</v>
+        <v>576.03121580351</v>
       </c>
       <c r="D34" t="n">
-        <v>659.0118642305861</v>
+        <v>576.03121580351</v>
       </c>
       <c r="E34" t="n">
-        <v>528.8386092648936</v>
+        <v>420.0224924165877</v>
       </c>
       <c r="F34" t="n">
-        <v>393.0117859209083</v>
+        <v>258.3602006513722</v>
       </c>
       <c r="G34" t="n">
-        <v>262.7897670965947</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0284494862033</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="I34" t="n">
-        <v>91.29483210793288</v>
+        <v>102.3027134058286</v>
       </c>
       <c r="J34" t="n">
-        <v>184.1040156910041</v>
+        <v>169.7905543892523</v>
       </c>
       <c r="K34" t="n">
-        <v>445.9494722557545</v>
+        <v>406.3146683543552</v>
       </c>
       <c r="L34" t="n">
-        <v>835.9566489090885</v>
+        <v>771.0005024080416</v>
       </c>
       <c r="M34" t="n">
-        <v>1262.460299238252</v>
+        <v>1172.182810137558</v>
       </c>
       <c r="N34" t="n">
-        <v>1675.269665473201</v>
+        <v>1559.67083377286</v>
       </c>
       <c r="O34" t="n">
-        <v>2066.015649511878</v>
+        <v>1925.095475211889</v>
       </c>
       <c r="P34" t="n">
-        <v>2391.932716792692</v>
+        <v>2225.691199893055</v>
       </c>
       <c r="Q34" t="n">
-        <v>2554.250702392367</v>
+        <v>2362.687842893083</v>
       </c>
       <c r="R34" t="n">
-        <v>2543.247039960995</v>
+        <v>2362.687842893083</v>
       </c>
       <c r="S34" t="n">
-        <v>2409.146943361584</v>
+        <v>2362.687842893083</v>
       </c>
       <c r="T34" t="n">
-        <v>2201.842546468938</v>
+        <v>2129.547977579207</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.693048850696</v>
+        <v>1859.563011539736</v>
       </c>
       <c r="V34" t="n">
-        <v>1712.01653234018</v>
+        <v>1588.051026607989</v>
       </c>
       <c r="W34" t="n">
-        <v>1473.199079394147</v>
+        <v>1366.278482660216</v>
       </c>
       <c r="X34" t="n">
-        <v>1266.670133721406</v>
+        <v>1133.914068566245</v>
       </c>
       <c r="Y34" t="n">
-        <v>1076.362316292602</v>
+        <v>917.7707827162113</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1110.521602210687</v>
       </c>
       <c r="F35" t="n">
-        <v>721.4323712815412</v>
+        <v>721.432371281541</v>
       </c>
       <c r="G35" t="n">
         <v>353.1282597524439</v>
       </c>
       <c r="H35" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I35" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J35" t="n">
         <v>453.8982909248284</v>
@@ -6947,19 +6947,19 @@
         <v>2099.031646519604</v>
       </c>
       <c r="N35" t="n">
-        <v>3011.317676087904</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O35" t="n">
-        <v>3856.462326238716</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P35" t="n">
-        <v>4564.741605396644</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R35" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S35" t="n">
         <v>4496.409262151238</v>
@@ -7008,10 +7008,10 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H36" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I36" t="n">
-        <v>98.74147506984471</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J36" t="n">
         <v>370.4389643494358</v>
@@ -7020,22 +7020,22 @@
         <v>960.9238909177753</v>
       </c>
       <c r="L36" t="n">
-        <v>1435.836985825663</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="M36" t="n">
-        <v>1435.836985825663</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.836985825663</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="O36" t="n">
-        <v>1435.836985825663</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="P36" t="n">
-        <v>1435.836985825663</v>
+        <v>1353.81767574096</v>
       </c>
       <c r="Q36" t="n">
-        <v>1899.982462688443</v>
+        <v>1817.963152603739</v>
       </c>
       <c r="R36" t="n">
         <v>1899.982462688443</v>
@@ -7075,13 +7075,13 @@
         <v>786.2936862223605</v>
       </c>
       <c r="D37" t="n">
-        <v>659.0118642305855</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E37" t="n">
         <v>528.8386092648932</v>
       </c>
       <c r="F37" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G37" t="n">
         <v>262.7897670965941</v>
@@ -7090,7 +7090,7 @@
         <v>155.0284494862027</v>
       </c>
       <c r="I37" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793286</v>
       </c>
       <c r="J37" t="n">
         <v>184.1040156910041</v>
@@ -7099,7 +7099,7 @@
         <v>445.9494722557545</v>
       </c>
       <c r="L37" t="n">
-        <v>835.9566489090885</v>
+        <v>835.9566489090886</v>
       </c>
       <c r="M37" t="n">
         <v>1262.460299238252</v>
@@ -7166,10 +7166,10 @@
         <v>353.1282597524439</v>
       </c>
       <c r="H38" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I38" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J38" t="n">
         <v>453.8982909248284</v>
@@ -7181,31 +7181,31 @@
         <v>2099.031646519604</v>
       </c>
       <c r="M38" t="n">
-        <v>3103.317747938662</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N38" t="n">
-        <v>4079.568806425363</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O38" t="n">
-        <v>4564.741605396644</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P38" t="n">
-        <v>4564.741605396644</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.741605396644</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R38" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S38" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T38" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U38" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V38" t="n">
         <v>3767.744219562895</v>
@@ -7245,10 +7245,10 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H39" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I39" t="n">
-        <v>98.74147506984471</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J39" t="n">
         <v>370.4389643494358</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619907</v>
       </c>
       <c r="C40" t="n">
-        <v>786.2936862223607</v>
+        <v>786.293686222361</v>
       </c>
       <c r="D40" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305861</v>
       </c>
       <c r="E40" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648934</v>
       </c>
       <c r="F40" t="n">
-        <v>393.0117859209079</v>
+        <v>393.011785920908</v>
       </c>
       <c r="G40" t="n">
         <v>262.7897670965942</v>
       </c>
       <c r="H40" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862028</v>
       </c>
       <c r="I40" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J40" t="n">
         <v>184.1040156910041</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9494722557541</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L40" t="n">
-        <v>835.9566489090881</v>
+        <v>835.9566489090885</v>
       </c>
       <c r="M40" t="n">
         <v>1262.460299238252</v>
@@ -7354,10 +7354,10 @@
         <v>2554.250702392367</v>
       </c>
       <c r="R40" t="n">
-        <v>2543.247039960994</v>
+        <v>2543.247039960995</v>
       </c>
       <c r="S40" t="n">
-        <v>2409.146943361583</v>
+        <v>2409.146943361584</v>
       </c>
       <c r="T40" t="n">
         <v>2201.842546468938</v>
@@ -7366,7 +7366,7 @@
         <v>1957.693048850696</v>
       </c>
       <c r="V40" t="n">
-        <v>1712.016532340179</v>
+        <v>1712.01653234018</v>
       </c>
       <c r="W40" t="n">
         <v>1473.199079394147</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2278.587040220167</v>
+        <v>2278.587040220166</v>
       </c>
       <c r="C41" t="n">
-        <v>1887.721261114921</v>
+        <v>1887.72126111492</v>
       </c>
       <c r="D41" t="n">
         <v>1500.463591181375</v>
@@ -7403,49 +7403,49 @@
         <v>353.1282597524439</v>
       </c>
       <c r="H41" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I41" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J41" t="n">
         <v>453.8982909248284</v>
       </c>
       <c r="K41" t="n">
-        <v>453.8982909248284</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L41" t="n">
-        <v>1383.523338544105</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M41" t="n">
-        <v>2387.809439963164</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="N41" t="n">
-        <v>3282.82051185263</v>
+        <v>3075.282705006305</v>
       </c>
       <c r="O41" t="n">
-        <v>3282.82051185263</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P41" t="n">
-        <v>3991.099791010558</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q41" t="n">
-        <v>4447.185270514741</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R41" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S41" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T41" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U41" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V41" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W41" t="n">
         <v>3407.387820744696</v>
@@ -7454,7 +7454,7 @@
         <v>3031.702772793898</v>
       </c>
       <c r="Y41" t="n">
-        <v>2662.400453630243</v>
+        <v>2662.400453630242</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H42" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I42" t="n">
-        <v>98.74147506984471</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J42" t="n">
         <v>370.4389643494358</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.2312984619909</v>
+        <v>922.2312984619911</v>
       </c>
       <c r="C43" t="n">
-        <v>786.2936862223612</v>
+        <v>786.2936862223611</v>
       </c>
       <c r="D43" t="n">
-        <v>659.0118642305861</v>
+        <v>659.011864230586</v>
       </c>
       <c r="E43" t="n">
         <v>528.8386092648936</v>
       </c>
       <c r="F43" t="n">
-        <v>393.0117859209083</v>
+        <v>393.0117859209082</v>
       </c>
       <c r="G43" t="n">
-        <v>262.7897670965943</v>
+        <v>262.7897670965947</v>
       </c>
       <c r="H43" t="n">
-        <v>155.0284494862027</v>
+        <v>155.0284494862033</v>
       </c>
       <c r="I43" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J43" t="n">
-        <v>184.1040156910042</v>
+        <v>184.1040156910041</v>
       </c>
       <c r="K43" t="n">
-        <v>445.9494722557546</v>
+        <v>445.9494722557545</v>
       </c>
       <c r="L43" t="n">
         <v>835.9566489090885</v>
@@ -7585,10 +7585,10 @@
         <v>2066.015649511878</v>
       </c>
       <c r="P43" t="n">
-        <v>2391.932716792692</v>
+        <v>2391.932716792693</v>
       </c>
       <c r="Q43" t="n">
-        <v>2554.250702392367</v>
+        <v>2554.250702392368</v>
       </c>
       <c r="R43" t="n">
         <v>2543.247039960995</v>
@@ -7597,7 +7597,7 @@
         <v>2409.146943361584</v>
       </c>
       <c r="T43" t="n">
-        <v>2201.842546468938</v>
+        <v>2201.842546468939</v>
       </c>
       <c r="U43" t="n">
         <v>1957.693048850697</v>
@@ -7609,10 +7609,10 @@
         <v>1473.199079394147</v>
       </c>
       <c r="X43" t="n">
-        <v>1266.670133721406</v>
+        <v>1266.670133721407</v>
       </c>
       <c r="Y43" t="n">
-        <v>1076.362316292602</v>
+        <v>1076.362316292603</v>
       </c>
     </row>
     <row r="44">
@@ -7640,55 +7640,55 @@
         <v>353.1282597524439</v>
       </c>
       <c r="H44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I44" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J44" t="n">
         <v>453.8982909248284</v>
       </c>
       <c r="K44" t="n">
-        <v>457.138701796059</v>
+        <v>1169.406598900327</v>
       </c>
       <c r="L44" t="n">
-        <v>457.138701796059</v>
+        <v>2099.031646519604</v>
       </c>
       <c r="M44" t="n">
-        <v>1461.424803215117</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="N44" t="n">
-        <v>2437.675861701818</v>
+        <v>2437.675861701817</v>
       </c>
       <c r="O44" t="n">
-        <v>3282.82051185263</v>
+        <v>3282.820511852629</v>
       </c>
       <c r="P44" t="n">
-        <v>3991.099791010558</v>
+        <v>3991.099791010557</v>
       </c>
       <c r="Q44" t="n">
-        <v>4447.185270514741</v>
+        <v>4447.18527051474</v>
       </c>
       <c r="R44" t="n">
-        <v>4564.741605396644</v>
+        <v>4564.741605396643</v>
       </c>
       <c r="S44" t="n">
-        <v>4496.409262151238</v>
+        <v>4496.409262151237</v>
       </c>
       <c r="T44" t="n">
-        <v>4311.518642077325</v>
+        <v>4311.518642077324</v>
       </c>
       <c r="U44" t="n">
-        <v>4089.198683555192</v>
+        <v>4089.198683555191</v>
       </c>
       <c r="V44" t="n">
-        <v>3767.744219562896</v>
+        <v>3767.744219562895</v>
       </c>
       <c r="W44" t="n">
         <v>3407.387820744696</v>
       </c>
       <c r="X44" t="n">
-        <v>3031.702772793898</v>
+        <v>3031.702772793897</v>
       </c>
       <c r="Y44" t="n">
         <v>2662.400453630242</v>
@@ -7719,34 +7719,34 @@
         <v>144.6709253456233</v>
       </c>
       <c r="H45" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="I45" t="n">
-        <v>98.74147506984471</v>
+        <v>98.74147506984468</v>
       </c>
       <c r="J45" t="n">
         <v>370.4389643494358</v>
       </c>
       <c r="K45" t="n">
-        <v>370.4389643494358</v>
+        <v>960.9238909177753</v>
       </c>
       <c r="L45" t="n">
-        <v>1207.237772432342</v>
+        <v>1797.722699000682</v>
       </c>
       <c r="M45" t="n">
-        <v>1353.81767574096</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="N45" t="n">
-        <v>1353.81767574096</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="O45" t="n">
-        <v>1353.81767574096</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="P45" t="n">
-        <v>1353.81767574096</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="Q45" t="n">
-        <v>1817.963152603739</v>
+        <v>1899.982462688443</v>
       </c>
       <c r="R45" t="n">
         <v>1899.982462688443</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>922.2312984619905</v>
+        <v>922.2312984619903</v>
       </c>
       <c r="C46" t="n">
-        <v>786.2936862223607</v>
+        <v>786.2936862223605</v>
       </c>
       <c r="D46" t="n">
-        <v>659.0118642305856</v>
+        <v>659.0118642305854</v>
       </c>
       <c r="E46" t="n">
-        <v>528.8386092648933</v>
+        <v>528.8386092648932</v>
       </c>
       <c r="F46" t="n">
-        <v>393.0117859209079</v>
+        <v>393.0117859209078</v>
       </c>
       <c r="G46" t="n">
-        <v>262.7897670965942</v>
+        <v>262.7897670965941</v>
       </c>
       <c r="H46" t="n">
         <v>155.0284494862027</v>
       </c>
       <c r="I46" t="n">
-        <v>91.29483210793288</v>
+        <v>91.29483210793285</v>
       </c>
       <c r="J46" t="n">
         <v>184.1040156910041</v>
@@ -7810,7 +7810,7 @@
         <v>445.9494722557545</v>
       </c>
       <c r="L46" t="n">
-        <v>835.9566489090881</v>
+        <v>835.9566489090884</v>
       </c>
       <c r="M46" t="n">
         <v>1262.460299238252</v>
@@ -7819,7 +7819,7 @@
         <v>1675.269665473201</v>
       </c>
       <c r="O46" t="n">
-        <v>2066.015649511878</v>
+        <v>2066.015649511877</v>
       </c>
       <c r="P46" t="n">
         <v>2391.932716792692</v>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.53626961840621</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>62.74489839701005</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>553.9733664232989</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>165.8400258387358</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>553.0522833467001</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>553.2366858009073</v>
       </c>
       <c r="Q2" t="n">
-        <v>64.24098473741773</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>63.14896002761616</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8055,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>48.72742446615302</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>538.0605578240094</v>
       </c>
       <c r="L3" t="n">
-        <v>50.63139684704925</v>
+        <v>538.1764107049056</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>538.758104503004</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>26.87435048486624</v>
       </c>
       <c r="O3" t="n">
-        <v>50.15218732442293</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>50.86334842179818</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8137,25 +8137,25 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>147.2255555237386</v>
       </c>
       <c r="L4" t="n">
-        <v>50.03507002852091</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>48.86521110842008</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>50.61549763124414</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>49.36109826018719</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8213,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>322.3281801399309</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>328.6728214491537</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>571.0335849150666</v>
       </c>
       <c r="O5" t="n">
-        <v>199.7207318203924</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P5" t="n">
-        <v>330.4835824645757</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>315.3074544876777</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8304,16 +8304,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>221.3976468302263</v>
+        <v>185.9918631203543</v>
       </c>
       <c r="P6" t="n">
-        <v>314.6790618591731</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>315.6552589433229</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8377,19 +8377,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>314.8269805500456</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
-        <v>313.6571216299448</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O7" t="n">
-        <v>181.3101858809203</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8453,28 +8453,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>480.8962504457604</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>548.1209608588846</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8541,16 +8541,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>189.6586051758914</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>181.0208015487716</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8611,10 +8611,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>233.5263615801855</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>116.2202743644426</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
@@ -8696,7 +8696,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8705,10 +8705,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>707.1380275899794</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8781,10 +8781,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>420.03429863453</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q12" t="n">
         <v>491.5808533018869</v>
@@ -8927,13 +8927,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>134.8598018422972</v>
+        <v>423.2283679410461</v>
       </c>
       <c r="N14" t="n">
         <v>1023.391803124043</v>
@@ -8948,7 +8948,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>419.3774956265374</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9021,7 +9021,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
         <v>491.5808533018869</v>
@@ -9164,16 +9164,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>583.8722719747261</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>150.7139701010937</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9185,7 +9185,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>295.0530226965566</v>
@@ -9246,7 +9246,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>426.8993572042261</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
@@ -9258,7 +9258,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
@@ -9407,7 +9407,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>924.3306556055946</v>
       </c>
       <c r="N20" t="n">
         <v>37.27962283444602</v>
@@ -9422,7 +9422,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>148.3153570964588</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>509.7471451685728</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9495,13 +9495,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>699.2271871843856</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>423.9453600458359</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9729,16 +9729,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P24" t="n">
-        <v>418.6332501171365</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>229.9501690078888</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,13 +9890,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>419.3774956265374</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9969,7 +9969,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
         <v>491.5808533018869</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10121,13 +10121,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>489.184786214375</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10194,7 +10194,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>419.3774956265374</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10206,7 +10206,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q30" t="n">
         <v>491.5808533018869</v>
@@ -10355,13 +10355,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N32" t="n">
-        <v>337.3393185878504</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
@@ -10370,7 +10370,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N35" t="n">
-        <v>958.7806628024254</v>
+        <v>379.3444866548631</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10604,10 +10604,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,13 +10668,13 @@
         <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>502.225283590884</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>418.2054371258495</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10686,7 +10686,7 @@
         <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,22 +10829,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>379.3444866548631</v>
       </c>
       <c r="O38" t="n">
-        <v>527.4644936704487</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,19 +11060,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>941.3312106015841</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>247.0251076856445</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11297,16 +11297,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>39.03774308898161</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>379.496126719849</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11376,13 +11376,13 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>171.1572889048716</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11394,10 +11394,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>356.3839468365917</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>14.84107679896641</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.02032463573508</v>
+        <v>46.5682271796956</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>19.21736803859324</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>356.383946836592</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>4.257766369549387</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>26.86140143470168</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>356.3839468365921</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>26.86140143470175</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>50.75370806577973</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>356.3839468365921</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.98949189919212</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>26.86140143470169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>26.86140143470163</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>71.98949189919212</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>71.98949189919209</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -24610,7 +24610,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>71.98949189919227</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24847,7 +24847,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>71.98949189919234</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -24886,7 +24886,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>71.98949189919183</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>151.586117508875</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>132.2608181713052</v>
       </c>
       <c r="I34" t="n">
-        <v>-6.110667527536862e-13</v>
+        <v>88.67339494150485</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>36.47073954407664</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>158.3362093704345</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>42.45157364529481</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-5.897504706808832e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>904174.2628317666</v>
+        <v>910992.7749663601</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>908001.1746052434</v>
+        <v>911408.7986540241</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>910436.3049390783</v>
+        <v>911408.7986540241</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>870356.5560095736</v>
+        <v>885463.2382610277</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>870356.5560095736</v>
+        <v>885463.2382610274</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>870356.5560095736</v>
+        <v>885463.2382610275</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>870356.5560095736</v>
+        <v>885463.2382610274</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>915050.8111394844</v>
+        <v>885463.2382610274</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>916018.0281028044</v>
+        <v>894418.4754769353</v>
       </c>
     </row>
     <row r="13">
@@ -26320,19 +26320,19 @@
         <v>116488.5336022326</v>
       </c>
       <c r="E2" t="n">
-        <v>110685.9664417075</v>
+        <v>112406.0806274895</v>
       </c>
       <c r="F2" t="n">
-        <v>110685.9664417075</v>
+        <v>112406.0806274895</v>
       </c>
       <c r="G2" t="n">
-        <v>110685.9664417075</v>
+        <v>112406.0806274894</v>
       </c>
       <c r="H2" t="n">
-        <v>110685.9664417075</v>
+        <v>112406.0806274895</v>
       </c>
       <c r="I2" t="n">
-        <v>116359.598875346</v>
+        <v>112406.0806274895</v>
       </c>
       <c r="J2" t="n">
         <v>112406.0806274895</v>
@@ -26341,13 +26341,13 @@
         <v>112406.0806274895</v>
       </c>
       <c r="L2" t="n">
-        <v>116488.5336022326</v>
+        <v>113561.5951069614</v>
       </c>
       <c r="M2" t="n">
         <v>116488.5336022326</v>
       </c>
       <c r="N2" t="n">
-        <v>116488.5336022325</v>
+        <v>116488.5336022326</v>
       </c>
       <c r="O2" t="n">
         <v>116488.5336022326</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640931</v>
+        <v>172809.9698797273</v>
       </c>
       <c r="C3" t="n">
-        <v>85546.50417943961</v>
+        <v>13105.84347019884</v>
       </c>
       <c r="D3" t="n">
-        <v>52338.57214447361</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>204401.7134596184</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>24420.21632826563</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>42294.81965085277</v>
+        <v>134919.6914542164</v>
       </c>
       <c r="K3" t="n">
-        <v>68148.96442710389</v>
+        <v>10440.51617310193</v>
       </c>
       <c r="L3" t="n">
-        <v>36358.46410370035</v>
+        <v>8077.990108497551</v>
       </c>
       <c r="M3" t="n">
-        <v>147533.1209819144</v>
+        <v>166235.4618077718</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>302344.3278278755</v>
+        <v>156998.5201147298</v>
       </c>
       <c r="C4" t="n">
-        <v>220768.5277437284</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="D4" t="n">
-        <v>168860.431333321</v>
+        <v>148130.4125690142</v>
       </c>
       <c r="E4" t="n">
-        <v>48146.06368811532</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="F4" t="n">
-        <v>48146.06368811532</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="G4" t="n">
-        <v>48146.06368811532</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="H4" t="n">
-        <v>48146.06368811532</v>
+        <v>15116.17365792743</v>
       </c>
       <c r="I4" t="n">
-        <v>48913.08368348019</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="J4" t="n">
         <v>15116.17365792743</v>
       </c>
       <c r="K4" t="n">
-        <v>15116.17365792743</v>
+        <v>15116.17365792744</v>
       </c>
       <c r="L4" t="n">
+        <v>18438.7503036675</v>
+      </c>
+      <c r="M4" t="n">
+        <v>49966.52619190449</v>
+      </c>
+      <c r="N4" t="n">
         <v>49966.52619190444</v>
       </c>
-      <c r="M4" t="n">
-        <v>49966.52619190444</v>
-      </c>
-      <c r="N4" t="n">
-        <v>49966.52619190443</v>
-      </c>
       <c r="O4" t="n">
-        <v>49966.52619190444</v>
+        <v>49966.52619190446</v>
       </c>
       <c r="P4" t="n">
-        <v>49966.52619190444</v>
+        <v>49966.52619190446</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35337.07165607544</v>
+        <v>64979.80849863309</v>
       </c>
       <c r="C5" t="n">
-        <v>51436.41981578414</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>66952.18391589136</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>72535.60588240981</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
         <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>72383.20046482542</v>
+        <v>78598.94787646878</v>
       </c>
       <c r="M5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="N5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="O5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
       <c r="P5" t="n">
-        <v>72383.20046482542</v>
+        <v>72383.20046482541</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-230615.2880823592</v>
+        <v>-278299.7648908575</v>
       </c>
       <c r="C6" t="n">
-        <v>-241262.9181367196</v>
+        <v>-112193.9734744085</v>
       </c>
       <c r="D6" t="n">
-        <v>-166391.1841457903</v>
+        <v>-99088.1300042097</v>
       </c>
       <c r="E6" t="n">
-        <v>-208813.9946219176</v>
+        <v>-196250.5424376924</v>
       </c>
       <c r="F6" t="n">
-        <v>-4412.281162299158</v>
+        <v>19488.81411894811</v>
       </c>
       <c r="G6" t="n">
-        <v>-4412.281162299172</v>
+        <v>19488.81411894802</v>
       </c>
       <c r="H6" t="n">
-        <v>-4412.281162299158</v>
+        <v>19488.81411894807</v>
       </c>
       <c r="I6" t="n">
-        <v>-29509.3070188096</v>
+        <v>19488.81411894808</v>
       </c>
       <c r="J6" t="n">
-        <v>-22754.97486972033</v>
+        <v>-115430.8773352683</v>
       </c>
       <c r="K6" t="n">
-        <v>-48609.11964597154</v>
+        <v>9048.297945846149</v>
       </c>
       <c r="L6" t="n">
-        <v>-42219.65715819762</v>
+        <v>8409.320087136706</v>
       </c>
       <c r="M6" t="n">
-        <v>-153394.3140364117</v>
+        <v>-172096.6548622691</v>
       </c>
       <c r="N6" t="n">
-        <v>-5861.193054497315</v>
+        <v>-5861.193054497271</v>
       </c>
       <c r="O6" t="n">
-        <v>-5861.1930544973</v>
+        <v>-5861.193054497227</v>
       </c>
       <c r="P6" t="n">
-        <v>-5861.193054497373</v>
+        <v>-5861.193054497329</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="M2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="N2" t="n">
         <v>35.67460137263964</v>
       </c>
       <c r="O2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="P2" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="3">
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="C4" t="n">
-        <v>292.9082206543444</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="H4" t="n">
-        <v>1053.417373304653</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="I4" t="n">
-        <v>1145.24997143818</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="J4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="K4" t="n">
         <v>1278.783917572857</v>
       </c>
       <c r="L4" t="n">
-        <v>1141.185401349161</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="M4" t="n">
         <v>1141.185401349161</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>25.57711373701771</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="C4" t="n">
-        <v>264.7919105215247</v>
+        <v>40.56648912491812</v>
       </c>
       <c r="D4" t="n">
-        <v>168.4916851059898</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>592.0174675443188</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>91.83259813352697</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>161.6502562674962</v>
+        <v>515.661323990676</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215252</v>
+        <v>40.56648912491812</v>
       </c>
       <c r="L4" t="n">
-        <v>30.89316888229388</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443188</v>
+        <v>584.9575882335663</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="K4" t="n">
-        <v>264.7919105215247</v>
+        <v>40.56648912491812</v>
       </c>
       <c r="L4" t="n">
-        <v>168.4916851059898</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>592.0174675443188</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>356.7395256861497</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27436,7 +27436,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -27445,7 +27445,7 @@
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>78.03671293488023</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75.53860425697246</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>64.5930618811052</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>64.99692393175235</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>136.9187591795094</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27549,13 +27549,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2419956741075</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>70.65457244430709</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>140.3173868732368</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>234.1709223160382</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.7416599942703</v>
+        <v>128.1412730213268</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>126.1514739525053</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>174.9799534173646</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27743,16 +27743,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>111.6939163698682</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>74.08821640321162</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>59.865601430817</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>168.4336970060574</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27862,16 +27862,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>25.76191611436678</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>152.6181964616705</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>6.280142175736273</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.9059542963599</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>34.5479025439635</v>
+        <v>-2.120263810372943e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.5479025439635</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="S13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.67460137263964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="C34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="D34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="E34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="F34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="G34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="H34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="I34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="J34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="K34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="L34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="M34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="N34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="O34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="P34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="R34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="S34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="T34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="U34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="V34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="W34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="X34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.67460137263964</v>
+        <v>10.09748763562194</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137264059</v>
       </c>
       <c r="T35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y35" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="C37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="D37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="E37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="F37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="G37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="H37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="I37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="J37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="K37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="L37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="M37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="N37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="O37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="P37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="R37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="S37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="T37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="U37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="V37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="W37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="X37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
       <c r="Y37" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263965</v>
       </c>
     </row>
     <row r="38">
@@ -30405,7 +30405,7 @@
         <v>35.67460137263964</v>
       </c>
       <c r="K40" t="n">
-        <v>35.67460137263924</v>
+        <v>35.67460137263964</v>
       </c>
       <c r="L40" t="n">
         <v>35.67460137263964</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y41" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="J43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="K43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="L43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="M43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="N43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="O43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="P43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="R43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="S43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y43" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y44" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="C46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="D46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="E46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="F46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="G46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="H46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="I46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="J46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="K46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="L46" t="n">
-        <v>35.67460137263924</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="M46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="N46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="O46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="P46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="R46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="S46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="T46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="U46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="V46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="W46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="X46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
       <c r="Y46" t="n">
-        <v>35.67460137263964</v>
+        <v>35.67460137263966</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.11631013281968</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>515.661323990676</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>128.5604030042898</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>515.661323990676</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>515.661323990676</v>
       </c>
       <c r="Q2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>28.11631013281968</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>515.661323990676</v>
       </c>
       <c r="L3" t="n">
-        <v>28.11631013281968</v>
+        <v>515.661323990676</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>515.661323990676</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.531322271324577</v>
       </c>
       <c r="O3" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>126.2609010710266</v>
       </c>
       <c r="L4" t="n">
-        <v>28.11631013281968</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>28.11631013281968</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>28.11631013281968</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>26.98029760220071</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>292.9082206543444</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>292.9082206543444</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="O5" t="n">
-        <v>162.3297724643683</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P5" t="n">
-        <v>292.9082206543444</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>292.9082206543444</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>198.225757108004</v>
+        <v>162.8199733981321</v>
       </c>
       <c r="P6" t="n">
-        <v>292.9082206543444</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>292.9082206543444</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35097,19 +35097,19 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>292.9082206543444</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
-        <v>292.9082206543444</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O7" t="n">
-        <v>158.8109983824958</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35173,28 +35173,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>510.5455990486533</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,16 +35261,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>168.3155769623498</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>211.6076016844843</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>86.80031487885611</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
@@ -35416,7 +35416,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35425,10 +35425,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>669.5626657797482</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>396.8624089123078</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>468.8338150129084</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N13" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O13" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>97.42853894286539</v>
+        <v>385.7971050416143</v>
       </c>
       <c r="N14" t="n">
         <v>986.1121802895968</v>
@@ -35668,7 +35668,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>396.8624089123078</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>468.8338150129084</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O16" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>548.1076711799168</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>113.2827072016619</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35905,7 +35905,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>274.4419083632233</v>
@@ -35966,7 +35966,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>404.3842704899966</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>113.2827072016623</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>487.2320584543432</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>677.4563459795569</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O22" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P22" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>385.633317613213</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36449,16 +36449,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P24" t="n">
-        <v>396.8624089123078</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.61995125523423</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K25" t="n">
-        <v>263.3636613377384</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L25" t="n">
-        <v>392.8199442554996</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M25" t="n">
-        <v>429.6850691805805</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N25" t="n">
-        <v>415.8524589844037</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O25" t="n">
-        <v>393.566214341704</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>328.0824600408332</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>162.830862383117</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>191.6381265752659</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,13 +36610,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>396.8624089123078</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>468.8338150129084</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36841,13 +36841,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>451.905163379929</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>396.8624089123078</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>468.8338150129084</v>
@@ -37075,13 +37075,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N32" t="n">
-        <v>300.0596957534044</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
@@ -37090,7 +37090,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.74665008391037</v>
+        <v>68.16953634689267</v>
       </c>
       <c r="K34" t="n">
-        <v>264.4903601664146</v>
+        <v>238.9132464293969</v>
       </c>
       <c r="L34" t="n">
-        <v>393.9466430841758</v>
+        <v>368.369529347158</v>
       </c>
       <c r="M34" t="n">
-        <v>430.8117680092566</v>
+        <v>405.2346542722389</v>
       </c>
       <c r="N34" t="n">
-        <v>416.9791578130798</v>
+        <v>391.4020440760621</v>
       </c>
       <c r="O34" t="n">
-        <v>394.6929131703801</v>
+        <v>369.1157994333624</v>
       </c>
       <c r="P34" t="n">
-        <v>329.2091588695093</v>
+        <v>303.6320451324916</v>
       </c>
       <c r="Q34" t="n">
-        <v>163.9575612117931</v>
+        <v>138.3804474747754</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37315,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>921.5010399679793</v>
+        <v>342.0648638204171</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37324,10 +37324,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,13 +37388,13 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>479.7101968766545</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,22 +37549,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>342.0648638204171</v>
       </c>
       <c r="O38" t="n">
-        <v>490.0735343144246</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>93.74665008391037</v>
       </c>
       <c r="K40" t="n">
-        <v>264.4903601664142</v>
+        <v>264.4903601664146</v>
       </c>
       <c r="L40" t="n">
         <v>393.9466430841758</v>
@@ -37780,19 +37780,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>904.051587767138</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>209.6341483296204</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008391038</v>
       </c>
       <c r="K43" t="n">
         <v>264.4903601664146</v>
@@ -38017,16 +38017,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>3.273142294172274</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>342.0648638204171</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38096,13 +38096,13 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>148.0605083925437</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38114,10 +38114,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.74665008391037</v>
+        <v>93.74665008391038</v>
       </c>
       <c r="K46" t="n">
         <v>264.4903601664146</v>
       </c>
       <c r="L46" t="n">
-        <v>393.9466430841754</v>
+        <v>393.9466430841758</v>
       </c>
       <c r="M46" t="n">
         <v>430.8117680092566</v>
